--- a/data/trans_orig/P74B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F659845-B99F-437F-9A9B-33CF0870FCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9877689E-CC32-48C5-862B-5B9F83062168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9C542429-F062-4440-BE50-6F341C20487A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B44B99C7-4D8E-4237-B324-1DD878E984D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -85,13 +85,13 @@
     <t>15,23%</t>
   </si>
   <si>
-    <t>52,44%</t>
+    <t>60,5%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>12,88%</t>
+    <t>10,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>84,77%</t>
   </si>
   <si>
-    <t>47,56%</t>
+    <t>39,5%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>87,12%</t>
+    <t>89,93%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -127,7 +127,7 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>5,85%</t>
+    <t>5,49%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -136,16 +136,16 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>94,15%</t>
+    <t>94,51%</t>
   </si>
   <si>
     <t>99,45%</t>
@@ -157,10 +157,10 @@
     <t>98,09%</t>
   </si>
   <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -169,49 +169,49 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>2,34%</t>
   </si>
   <si>
     <t>30,02%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,83%</t>
+    <t>97,66%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -223,943 +223,943 @@
     <t>0,86%</t>
   </si>
   <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>7,68%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>92,32%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>71,6%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>40,3%</t>
   </si>
   <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
   </si>
   <si>
     <t>59,7%</t>
   </si>
   <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>61,94%</t>
   </si>
   <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>85,56%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7CF31C-36DF-4D9D-B072-5DBDF99866CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751C190F-19D3-409B-AC1B-D52050CCC3FE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2790,7 +2790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0492CC-67CC-4028-A4AB-F3C7ABBEF25B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7EE7C-BD21-49E8-BCBB-2EADA628974E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3257,10 +3257,10 @@
         <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3275,13 @@
         <v>256652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -3290,13 +3290,13 @@
         <v>100202</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -3305,13 +3305,13 @@
         <v>356853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3379,13 @@
         <v>9599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -3394,13 +3394,13 @@
         <v>57865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3409,13 +3409,13 @@
         <v>67464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3430,13 @@
         <v>259230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -3445,13 +3445,13 @@
         <v>74897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>304</v>
@@ -3460,13 +3460,13 @@
         <v>334127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3534,13 @@
         <v>24482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>177</v>
@@ -3549,13 +3549,13 @@
         <v>194632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -3564,13 +3564,13 @@
         <v>219115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3585,13 @@
         <v>252449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3600,13 +3600,13 @@
         <v>34237</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>265</v>
@@ -3615,13 +3615,13 @@
         <v>286686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3689,13 @@
         <v>126148</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H19" s="7">
         <v>308</v>
@@ -3704,13 +3704,13 @@
         <v>328142</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -3719,13 +3719,13 @@
         <v>454290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3740,13 @@
         <v>274603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3755,13 +3755,13 @@
         <v>8005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>261</v>
@@ -3770,13 +3770,13 @@
         <v>282608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3844,13 @@
         <v>172865</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>574</v>
@@ -3859,13 +3859,13 @@
         <v>625640</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>726</v>
@@ -3874,13 +3874,13 @@
         <v>798505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3895,13 @@
         <v>1202484</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>270</v>
@@ -3910,13 +3910,13 @@
         <v>293051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>1396</v>
@@ -3925,13 +3925,13 @@
         <v>1495535</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,7 +4009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB30982F-8966-401D-9D89-0F0A9CA2BC8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2E2D7D-0775-44C6-80AD-70894417B255}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4026,7 +4026,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4133,13 +4133,13 @@
         <v>2910</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4148,13 +4148,13 @@
         <v>1752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4163,13 +4163,13 @@
         <v>4661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,10 +4184,10 @@
         <v>19921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4199,10 +4199,10 @@
         <v>29272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4214,13 +4214,13 @@
         <v>49194</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4288,13 @@
         <v>7419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4303,13 +4303,13 @@
         <v>7320</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4318,13 +4318,13 @@
         <v>14739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4339,13 @@
         <v>150294</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -4354,13 +4354,13 @@
         <v>43332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -4369,13 +4369,13 @@
         <v>193627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4443,13 @@
         <v>11322</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4458,13 +4458,13 @@
         <v>22039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -4473,13 +4473,13 @@
         <v>33361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4494,13 @@
         <v>238676</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="H11" s="7">
         <v>89</v>
@@ -4509,13 +4509,13 @@
         <v>88052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M11" s="7">
         <v>322</v>
@@ -4524,13 +4524,13 @@
         <v>326728</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4598,13 @@
         <v>13565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4613,13 +4613,13 @@
         <v>39134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4628,13 +4628,13 @@
         <v>52699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4649,13 @@
         <v>253895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -4664,13 +4664,13 @@
         <v>98680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>324</v>
@@ -4679,13 +4679,13 @@
         <v>352575</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4753,13 @@
         <v>23189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -4768,13 +4768,13 @@
         <v>169231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
         <v>168</v>
@@ -4783,13 +4783,13 @@
         <v>192419</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4804,13 @@
         <v>245338</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4819,13 +4819,13 @@
         <v>39713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -4834,13 +4834,13 @@
         <v>285051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4908,13 @@
         <v>110681</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H19" s="7">
         <v>305</v>
@@ -4923,13 +4923,13 @@
         <v>353398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M19" s="7">
         <v>423</v>
@@ -4938,13 +4938,13 @@
         <v>464079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4959,13 @@
         <v>280630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4974,13 +4974,13 @@
         <v>4474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
         <v>299</v>
@@ -4989,13 +4989,13 @@
         <v>285104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5063,13 @@
         <v>169085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H22" s="7">
         <v>521</v>
@@ -5078,13 +5078,13 @@
         <v>592873</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>690</v>
@@ -5093,13 +5093,13 @@
         <v>761958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5114,13 @@
         <v>1188754</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>367</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>292</v>

--- a/data/trans_orig/P74B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9877689E-CC32-48C5-862B-5B9F83062168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E8E670-E37F-4A74-A88F-55AE45C6DAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B44B99C7-4D8E-4237-B324-1DD878E984D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E9D8956-C6CD-4771-BFB7-63F84C96AA36}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="370">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>15,23%</t>
   </si>
   <si>
-    <t>60,5%</t>
+    <t>62,78%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>10,07%</t>
+    <t>12,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>84,77%</t>
   </si>
   <si>
-    <t>39,5%</t>
+    <t>37,22%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>89,93%</t>
+    <t>87,46%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -124,10 +124,10 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -136,19 +136,19 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -157,10 +157,10 @@
     <t>98,09%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -169,49 +169,49 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,14%</t>
   </si>
   <si>
     <t>30,02%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,66%</t>
+    <t>97,86%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -223,31 +223,31 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,42%</t>
   </si>
   <si>
     <t>71,75%</t>
   </si>
   <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>95,58%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -256,19 +256,19 @@
     <t>28,25%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -277,55 +277,55 @@
     <t>8,3%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>91,7%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>61,86%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -334,19 +334,16 @@
     <t>19,09%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
+    <t>23,1%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>53,24%</t>
@@ -355,31 +352,28 @@
     <t>49,71%</t>
   </si>
   <si>
-    <t>57,23%</t>
+    <t>56,81%</t>
   </si>
   <si>
     <t>80,91%</t>
   </si>
   <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>76,9%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>46,76%</t>
   </si>
   <si>
-    <t>42,77%</t>
+    <t>43,19%</t>
   </si>
   <si>
     <t>50,29%</t>
@@ -388,55 +382,55 @@
     <t>7,57%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>69,69%</t>
   </si>
   <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -448,307 +442,301 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>19,77%</t>
+    <t>20,25%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>46,15%</t>
+    <t>42,41%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>80,23%</t>
+    <t>79,75%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>53,85%</t>
+    <t>57,59%</t>
   </si>
   <si>
     <t>91,33%</t>
   </si>
   <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,89%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>97,11%</t>
+    <t>96,43%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>82,11%</t>
   </si>
   <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>43,59%</t>
   </si>
   <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
   </si>
   <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>56,41%</t>
   </si>
   <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
   </si>
   <si>
     <t>83,2%</t>
   </si>
   <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>43,32%</t>
   </si>
   <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>56,68%</t>
   </si>
   <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>61,65%</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
   </si>
   <si>
     <t>68,52%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>38,35%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
   </si>
   <si>
     <t>12,57%</t>
@@ -757,16 +745,16 @@
     <t>10,66%</t>
   </si>
   <si>
-    <t>14,56%</t>
+    <t>14,66%</t>
   </si>
   <si>
     <t>68,1%</t>
   </si>
   <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
   </si>
   <si>
     <t>34,81%</t>
@@ -775,13 +763,13 @@
     <t>32,77%</t>
   </si>
   <si>
-    <t>36,93%</t>
+    <t>36,97%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>85,44%</t>
+    <t>85,34%</t>
   </si>
   <si>
     <t>89,34%</t>
@@ -790,376 +778,376 @@
     <t>31,9%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>65,19%</t>
   </si>
   <si>
-    <t>63,07%</t>
+    <t>63,03%</t>
   </si>
   <si>
     <t>67,23%</t>
   </si>
   <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>36,57%</t>
+    <t>37,87%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>17,35%</t>
+    <t>17,43%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>87,26%</t>
   </si>
   <si>
-    <t>63,43%</t>
+    <t>62,13%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>82,65%</t>
+    <t>82,57%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>92,32%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>40,3%</t>
   </si>
   <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>59,7%</t>
   </si>
   <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>61,94%</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>14,44%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>85,56%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751C190F-19D3-409B-AC1B-D52050CCC3FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1478BA-1C3D-487C-BFA9-8272A40448C3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2473,10 +2461,10 @@
         <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>298</v>
@@ -2485,13 +2473,13 @@
         <v>295123</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>374</v>
@@ -2500,13 +2488,13 @@
         <v>368228</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2509,13 @@
         <v>309760</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2536,13 +2524,13 @@
         <v>13612</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>335</v>
@@ -2551,13 +2539,13 @@
         <v>323372</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2613,13 @@
         <v>107100</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>505</v>
@@ -2640,13 +2628,13 @@
         <v>507414</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>613</v>
@@ -2655,13 +2643,13 @@
         <v>614514</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2664,13 @@
         <v>1308412</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>103</v>
@@ -2691,13 +2679,13 @@
         <v>104662</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>1399</v>
@@ -2706,13 +2694,13 @@
         <v>1413074</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,7 +2756,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7EE7C-BD21-49E8-BCBB-2EADA628974E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14637AA3-F929-49B3-9462-BE3664E1AD63}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2807,7 +2795,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2914,13 +2902,13 @@
         <v>985</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2929,13 +2917,13 @@
         <v>2688</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2944,13 +2932,13 @@
         <v>3673</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,10 +2953,10 @@
         <v>23754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2980,10 +2968,10 @@
         <v>14950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2995,13 +2983,13 @@
         <v>38705</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3057,13 @@
         <v>967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3084,13 +3072,13 @@
         <v>20487</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3099,13 +3087,13 @@
         <v>21454</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,10 +3108,10 @@
         <v>135796</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3135,13 +3123,13 @@
         <v>60760</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M8" s="7">
         <v>187</v>
@@ -3150,13 +3138,13 @@
         <v>196556</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3212,13 @@
         <v>10683</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3239,13 +3227,13 @@
         <v>21825</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3254,13 +3242,13 @@
         <v>32509</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3263,13 @@
         <v>256652</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -3290,13 +3278,13 @@
         <v>100202</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -3305,13 +3293,13 @@
         <v>356853</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3367,13 @@
         <v>9599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -3394,13 +3382,13 @@
         <v>57865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3409,13 +3397,13 @@
         <v>67464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3418,13 @@
         <v>259230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -3445,13 +3433,13 @@
         <v>74897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>304</v>
@@ -3460,13 +3448,13 @@
         <v>334127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3522,13 @@
         <v>24482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>177</v>
@@ -3549,13 +3537,13 @@
         <v>194632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -3564,13 +3552,13 @@
         <v>219115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3573,13 @@
         <v>252449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3600,13 +3588,13 @@
         <v>34237</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>265</v>
@@ -3615,13 +3603,13 @@
         <v>286686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3677,13 @@
         <v>126148</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>308</v>
@@ -3704,13 +3692,13 @@
         <v>328142</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -3719,13 +3707,13 @@
         <v>454290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3728,13 @@
         <v>274603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3755,13 +3743,13 @@
         <v>8005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>261</v>
@@ -3770,13 +3758,13 @@
         <v>282608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3832,13 @@
         <v>172865</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H22" s="7">
         <v>574</v>
@@ -3859,13 +3847,13 @@
         <v>625640</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>726</v>
@@ -3874,13 +3862,13 @@
         <v>798505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3883,13 @@
         <v>1202484</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>270</v>
@@ -3910,13 +3898,13 @@
         <v>293051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M23" s="7">
         <v>1396</v>
@@ -3925,13 +3913,13 @@
         <v>1495535</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +3975,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +3997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2E2D7D-0775-44C6-80AD-70894417B255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8272453-24DD-4A9F-9379-235235E177F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4026,7 +4014,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4133,13 +4121,13 @@
         <v>2910</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4148,13 +4136,13 @@
         <v>1752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4163,13 +4151,13 @@
         <v>4661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,10 +4172,10 @@
         <v>19921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4199,10 +4187,10 @@
         <v>29272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4214,13 +4202,13 @@
         <v>49194</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4276,13 @@
         <v>7419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4303,13 +4291,13 @@
         <v>7320</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4318,13 +4306,13 @@
         <v>14739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4327,13 @@
         <v>150294</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -4354,13 +4342,13 @@
         <v>43332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -4369,13 +4357,13 @@
         <v>193627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4431,13 @@
         <v>11322</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4458,13 +4446,13 @@
         <v>22039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -4473,13 +4461,13 @@
         <v>33361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4482,13 @@
         <v>238676</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="H11" s="7">
         <v>89</v>
@@ -4509,13 +4497,13 @@
         <v>88052</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M11" s="7">
         <v>322</v>
@@ -4524,13 +4512,13 @@
         <v>326728</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4586,13 @@
         <v>13565</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4613,13 +4601,13 @@
         <v>39134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4628,13 +4616,13 @@
         <v>52699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4637,13 @@
         <v>253895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -4664,28 +4652,28 @@
         <v>98680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M14" s="7">
         <v>324</v>
       </c>
       <c r="N14" s="7">
-        <v>352575</v>
+        <v>352574</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,7 +4715,7 @@
         <v>373</v>
       </c>
       <c r="N15" s="7">
-        <v>405274</v>
+        <v>405273</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -4753,13 +4741,13 @@
         <v>23189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -4768,13 +4756,13 @@
         <v>169231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>168</v>
@@ -4783,13 +4771,13 @@
         <v>192419</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4792,13 @@
         <v>245338</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4819,13 +4807,13 @@
         <v>39713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -4834,13 +4822,13 @@
         <v>285051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4896,13 @@
         <v>110681</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H19" s="7">
         <v>305</v>
@@ -4923,13 +4911,13 @@
         <v>353398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>423</v>
@@ -4938,13 +4926,13 @@
         <v>464079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4947,13 @@
         <v>280630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4974,13 +4962,13 @@
         <v>4474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>299</v>
@@ -4989,13 +4977,13 @@
         <v>285104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5051,13 @@
         <v>169085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>353</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>521</v>
@@ -5078,13 +5066,13 @@
         <v>592873</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M22" s="7">
         <v>690</v>
@@ -5093,13 +5081,13 @@
         <v>761958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,16 +5099,16 @@
         <v>1141</v>
       </c>
       <c r="D23" s="7">
-        <v>1188754</v>
+        <v>1188755</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>363</v>
       </c>
       <c r="H23" s="7">
         <v>292</v>
@@ -5129,13 +5117,13 @@
         <v>303524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M23" s="7">
         <v>1433</v>
@@ -5144,13 +5132,13 @@
         <v>1492279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,7 +5150,7 @@
         <v>1310</v>
       </c>
       <c r="D24" s="7">
-        <v>1357839</v>
+        <v>1357840</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -5206,7 +5194,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E8E670-E37F-4A74-A88F-55AE45C6DAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17C66D84-5AA8-47F6-BCD2-6883A879D6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E9D8956-C6CD-4771-BFB7-63F84C96AA36}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{685F2F1F-422A-437B-A46A-BC49B1590F63}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="374">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>15,23%</t>
   </si>
   <si>
-    <t>62,78%</t>
+    <t>52,44%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>12,54%</t>
+    <t>12,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>84,77%</t>
   </si>
   <si>
-    <t>37,22%</t>
+    <t>47,56%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>87,46%</t>
+    <t>87,12%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -124,10 +124,10 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -139,16 +139,16 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>5,8%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -157,7 +157,7 @@
     <t>98,09%</t>
   </si>
   <si>
-    <t>93,87%</t>
+    <t>94,2%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -169,985 +169,997 @@
     <t>0,43%</t>
   </si>
   <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>35,65%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
   </si>
   <si>
     <t>64,35%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>68,27%</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1478BA-1C3D-487C-BFA9-8272A40448C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849AA6B8-E874-496C-9CDB-06E9A7593CC4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2461,10 +2473,10 @@
         <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>298</v>
@@ -2473,13 +2485,13 @@
         <v>295123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>374</v>
@@ -2488,13 +2500,13 @@
         <v>368228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2521,13 @@
         <v>309760</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2524,13 +2536,13 @@
         <v>13612</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>335</v>
@@ -2539,13 +2551,13 @@
         <v>323372</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2625,13 @@
         <v>107100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>505</v>
@@ -2628,13 +2640,13 @@
         <v>507414</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>613</v>
@@ -2643,13 +2655,13 @@
         <v>614514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2676,13 @@
         <v>1308412</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>103</v>
@@ -2679,13 +2691,13 @@
         <v>104662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>1399</v>
@@ -2694,13 +2706,13 @@
         <v>1413074</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,7 +2768,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14637AA3-F929-49B3-9462-BE3664E1AD63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92895B6C-85CF-460A-BD34-8CE171407A95}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2795,7 +2807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2902,13 +2914,13 @@
         <v>985</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2917,13 +2929,13 @@
         <v>2688</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2932,13 +2944,13 @@
         <v>3673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,10 +2965,10 @@
         <v>23754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2968,10 +2980,10 @@
         <v>14950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2983,13 +2995,13 @@
         <v>38705</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3069,13 @@
         <v>967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3072,13 +3084,13 @@
         <v>20487</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3087,13 +3099,13 @@
         <v>21454</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,10 +3120,10 @@
         <v>135796</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3123,13 +3135,13 @@
         <v>60760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M8" s="7">
         <v>187</v>
@@ -3138,13 +3150,13 @@
         <v>196556</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3224,13 @@
         <v>10683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3227,13 +3239,13 @@
         <v>21825</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3242,13 +3254,13 @@
         <v>32509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3275,13 @@
         <v>256652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -3278,13 +3290,13 @@
         <v>100202</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -3293,13 +3305,13 @@
         <v>356853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3379,13 @@
         <v>9599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -3382,13 +3394,13 @@
         <v>57865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3397,13 +3409,13 @@
         <v>67464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3430,13 @@
         <v>259230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -3433,13 +3445,13 @@
         <v>74897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>304</v>
@@ -3448,13 +3460,13 @@
         <v>334127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3534,13 @@
         <v>24482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>177</v>
@@ -3537,13 +3549,13 @@
         <v>194632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -3552,13 +3564,13 @@
         <v>219115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3585,13 @@
         <v>252449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3588,13 +3600,13 @@
         <v>34237</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>265</v>
@@ -3603,13 +3615,13 @@
         <v>286686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3689,13 @@
         <v>126148</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>308</v>
@@ -3692,13 +3704,13 @@
         <v>328142</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -3707,13 +3719,13 @@
         <v>454290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3740,13 @@
         <v>274603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3743,13 +3755,13 @@
         <v>8005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>261</v>
@@ -3758,13 +3770,13 @@
         <v>282608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3844,13 @@
         <v>172865</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>574</v>
@@ -3847,13 +3859,13 @@
         <v>625640</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>726</v>
@@ -3862,13 +3874,13 @@
         <v>798505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3895,13 @@
         <v>1202484</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>270</v>
@@ -3898,13 +3910,13 @@
         <v>293051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M23" s="7">
         <v>1396</v>
@@ -3913,13 +3925,13 @@
         <v>1495535</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3987,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +4009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8272453-24DD-4A9F-9379-235235E177F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D72979-4223-40C1-AB33-DFEADEA37F31}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4014,7 +4026,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4121,13 +4133,13 @@
         <v>2910</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4136,13 +4148,13 @@
         <v>1752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4151,13 +4163,13 @@
         <v>4661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,10 +4184,10 @@
         <v>19921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4187,10 +4199,10 @@
         <v>29272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4202,13 +4214,13 @@
         <v>49194</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4288,13 @@
         <v>7419</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4291,13 +4303,13 @@
         <v>7320</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4306,13 +4318,13 @@
         <v>14739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,7 +4339,7 @@
         <v>150294</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>69</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>276</v>
@@ -4601,13 +4613,13 @@
         <v>39134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4616,13 +4628,13 @@
         <v>52699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4649,13 @@
         <v>253895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -4652,28 +4664,28 @@
         <v>98680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>324</v>
       </c>
       <c r="N14" s="7">
-        <v>352574</v>
+        <v>352575</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +4727,7 @@
         <v>373</v>
       </c>
       <c r="N15" s="7">
-        <v>405273</v>
+        <v>405274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -4741,13 +4753,13 @@
         <v>23189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -4756,13 +4768,13 @@
         <v>169231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>168</v>
@@ -4771,13 +4783,13 @@
         <v>192419</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4804,13 @@
         <v>245338</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4807,13 +4819,13 @@
         <v>39713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -4822,13 +4834,13 @@
         <v>285051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4908,13 @@
         <v>110681</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H19" s="7">
         <v>305</v>
@@ -4911,13 +4923,13 @@
         <v>353398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
         <v>423</v>
@@ -4926,13 +4938,13 @@
         <v>464079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4959,13 @@
         <v>280630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>347</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4962,13 +4974,13 @@
         <v>4474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M20" s="7">
         <v>299</v>
@@ -4977,13 +4989,13 @@
         <v>285104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5063,13 @@
         <v>169085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>521</v>
@@ -5066,13 +5078,13 @@
         <v>592873</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
         <v>690</v>
@@ -5081,13 +5093,13 @@
         <v>761958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,16 +5111,16 @@
         <v>1141</v>
       </c>
       <c r="D23" s="7">
-        <v>1188755</v>
+        <v>1188754</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H23" s="7">
         <v>292</v>
@@ -5117,13 +5129,13 @@
         <v>303524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M23" s="7">
         <v>1433</v>
@@ -5132,13 +5144,13 @@
         <v>1492279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,7 +5162,7 @@
         <v>1310</v>
       </c>
       <c r="D24" s="7">
-        <v>1357840</v>
+        <v>1357839</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -5194,7 +5206,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17C66D84-5AA8-47F6-BCD2-6883A879D6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF87529-1DFB-484E-BB8A-49EF36F3F537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{685F2F1F-422A-437B-A46A-BC49B1590F63}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ED307DD7-97E7-4735-B963-C9C931FEDC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="419">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -118,7 +118,7 @@
     <t>87,12%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,05%</t>
@@ -163,7 +163,7 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,43%</t>
@@ -214,7 +214,7 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,16%</t>
@@ -271,7 +271,7 @@
     <t>87,73%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>8,3%</t>
@@ -328,61 +328,118 @@
     <t>66,7%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>7,57%</t>
@@ -454,9 +511,6 @@
     <t>15,24%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
     <t>8,67%</t>
   </si>
   <si>
@@ -475,9 +529,6 @@
     <t>84,76%</t>
   </si>
   <si>
-    <t>53,62%</t>
-  </si>
-  <si>
     <t>91,33%</t>
   </si>
   <si>
@@ -691,421 +742,505 @@
     <t>61,47%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>12,45%</t>
@@ -1571,8 +1706,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849AA6B8-E874-496C-9CDB-06E9A7593CC4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4062694-0469-4C83-B07B-BCB9A2D88D49}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2327,7 +2462,7 @@
         <v>144</v>
       </c>
       <c r="I16" s="7">
-        <v>147446</v>
+        <v>147445</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>81</v>
@@ -2429,7 +2564,7 @@
         <v>165</v>
       </c>
       <c r="I18" s="7">
-        <v>168212</v>
+        <v>168211</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -2464,10 +2599,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>73105</v>
+        <v>45754</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>97</v>
@@ -2479,10 +2614,10 @@
         <v>99</v>
       </c>
       <c r="H19" s="7">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="I19" s="7">
-        <v>295123</v>
+        <v>190321</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>100</v>
@@ -2494,10 +2629,10 @@
         <v>102</v>
       </c>
       <c r="M19" s="7">
-        <v>374</v>
+        <v>255</v>
       </c>
       <c r="N19" s="7">
-        <v>368228</v>
+        <v>236075</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>103</v>
@@ -2515,10 +2650,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c r="D20" s="7">
-        <v>309760</v>
+        <v>196021</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>106</v>
@@ -2530,10 +2665,10 @@
         <v>108</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>13612</v>
+        <v>8196</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>109</v>
@@ -2545,10 +2680,10 @@
         <v>111</v>
       </c>
       <c r="M20" s="7">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="N20" s="7">
-        <v>323372</v>
+        <v>204217</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>112</v>
@@ -2566,10 +2701,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>398</v>
+        <v>251</v>
       </c>
       <c r="D21" s="7">
-        <v>382865</v>
+        <v>241775</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2581,10 +2716,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="I21" s="7">
-        <v>308735</v>
+        <v>198517</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -2596,10 +2731,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>709</v>
+        <v>467</v>
       </c>
       <c r="N21" s="7">
-        <v>691600</v>
+        <v>440292</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -2613,55 +2748,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>107100</v>
+        <v>27352</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
-        <v>505</v>
+        <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>507414</v>
+        <v>104802</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="7">
         <v>119</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="7">
-        <v>613</v>
-      </c>
       <c r="N22" s="7">
-        <v>614514</v>
+        <v>132154</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,49 +2805,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1296</v>
+        <v>119</v>
       </c>
       <c r="D23" s="7">
-        <v>1308412</v>
+        <v>113739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>104662</v>
+        <v>5416</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
-        <v>1399</v>
+        <v>123</v>
       </c>
       <c r="N23" s="7">
-        <v>1413074</v>
+        <v>119154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,63 +2856,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>147</v>
+      </c>
+      <c r="D24" s="7">
+        <v>141091</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>95</v>
+      </c>
+      <c r="I24" s="7">
+        <v>110218</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>242</v>
+      </c>
+      <c r="N24" s="7">
+        <v>251308</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>108</v>
+      </c>
+      <c r="D25" s="7">
+        <v>107100</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="7">
+        <v>505</v>
+      </c>
+      <c r="I25" s="7">
+        <v>507414</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="7">
+        <v>613</v>
+      </c>
+      <c r="N25" s="7">
+        <v>614514</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1296</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1308412</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="7">
+        <v>103</v>
+      </c>
+      <c r="I26" s="7">
+        <v>104662</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1399</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1413074</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1404</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1415512</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>608</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>612076</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>2012</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2027588</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>133</v>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2790,8 +3081,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92895B6C-85CF-460A-BD34-8CE171407A95}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256B80CF-C349-4E75-9662-0107923117EF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2807,7 +3098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2914,13 +3205,13 @@
         <v>985</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2929,13 +3220,13 @@
         <v>2688</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2944,13 +3235,13 @@
         <v>3673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,10 +3256,10 @@
         <v>23754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2980,10 +3271,10 @@
         <v>14950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2995,13 +3286,13 @@
         <v>38705</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3360,13 @@
         <v>967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3084,13 +3375,13 @@
         <v>20487</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3099,13 +3390,13 @@
         <v>21454</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,10 +3411,10 @@
         <v>135796</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3135,13 +3426,13 @@
         <v>60760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>187</v>
@@ -3150,13 +3441,13 @@
         <v>196556</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3515,13 @@
         <v>10683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3239,13 +3530,13 @@
         <v>21825</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3254,13 +3545,13 @@
         <v>32509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3566,13 @@
         <v>256652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -3290,13 +3581,13 @@
         <v>100202</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -3305,10 +3596,10 @@
         <v>356853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>20</v>
@@ -3379,13 +3670,13 @@
         <v>9599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -3394,13 +3685,13 @@
         <v>57865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3409,13 +3700,13 @@
         <v>67464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3721,13 @@
         <v>259230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -3445,13 +3736,13 @@
         <v>74897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>304</v>
@@ -3460,13 +3751,13 @@
         <v>334127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3825,13 @@
         <v>24482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>177</v>
@@ -3549,13 +3840,13 @@
         <v>194632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -3564,13 +3855,13 @@
         <v>219115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3876,13 @@
         <v>252449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3600,13 +3891,13 @@
         <v>34237</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>265</v>
@@ -3615,13 +3906,13 @@
         <v>286686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,49 +3974,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>126148</v>
+        <v>66875</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="I19" s="7">
-        <v>328142</v>
+        <v>187025</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="N19" s="7">
-        <v>454290</v>
+        <v>253900</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,49 +4025,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="D20" s="7">
-        <v>274603</v>
+        <v>167058</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>8005</v>
+        <v>6928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="N20" s="7">
-        <v>282608</v>
+        <v>173987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,10 +4076,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>363</v>
+        <v>217</v>
       </c>
       <c r="D21" s="7">
-        <v>400751</v>
+        <v>233933</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -3800,10 +4091,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>315</v>
+        <v>186</v>
       </c>
       <c r="I21" s="7">
-        <v>336147</v>
+        <v>193953</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -3815,10 +4106,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>678</v>
+        <v>403</v>
       </c>
       <c r="N21" s="7">
-        <v>736898</v>
+        <v>427887</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -3832,55 +4123,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="D22" s="7">
-        <v>172865</v>
+        <v>59274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
-        <v>574</v>
+        <v>128</v>
       </c>
       <c r="I22" s="7">
-        <v>625640</v>
+        <v>141117</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
-        <v>726</v>
+        <v>179</v>
       </c>
       <c r="N22" s="7">
-        <v>798505</v>
+        <v>200391</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,49 +4180,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1126</v>
+        <v>95</v>
       </c>
       <c r="D23" s="7">
-        <v>1202484</v>
+        <v>107544</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>293051</v>
+        <v>1077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
-        <v>1396</v>
+        <v>96</v>
       </c>
       <c r="N23" s="7">
-        <v>1495535</v>
+        <v>108621</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,63 +4231,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>146</v>
+      </c>
+      <c r="D24" s="7">
+        <v>166818</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>129</v>
+      </c>
+      <c r="I24" s="7">
+        <v>142194</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>275</v>
+      </c>
+      <c r="N24" s="7">
+        <v>309012</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>152</v>
+      </c>
+      <c r="D25" s="7">
+        <v>172865</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H25" s="7">
+        <v>574</v>
+      </c>
+      <c r="I25" s="7">
+        <v>625640</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M25" s="7">
+        <v>726</v>
+      </c>
+      <c r="N25" s="7">
+        <v>798505</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1126</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1202484</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="7">
+        <v>270</v>
+      </c>
+      <c r="I26" s="7">
+        <v>293051</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1396</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1495535</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1278</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1375349</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>844</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>918691</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>2122</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2294040</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>133</v>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4009,8 +4456,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D72979-4223-40C1-AB33-DFEADEA37F31}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674854A0-0C97-49E5-A8EC-C577D1B0F1A6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4026,7 +4473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4133,13 +4580,13 @@
         <v>2910</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4148,13 +4595,13 @@
         <v>1752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4163,13 +4610,13 @@
         <v>4661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,10 +4631,10 @@
         <v>19921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4199,10 +4646,10 @@
         <v>29272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4214,13 +4661,13 @@
         <v>49194</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,10 +4738,10 @@
         <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4303,13 +4750,13 @@
         <v>7320</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4318,13 +4765,13 @@
         <v>14739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,10 +4789,10 @@
         <v>69</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -4354,13 +4801,13 @@
         <v>43332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>185</v>
@@ -4369,13 +4816,13 @@
         <v>193627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4890,13 @@
         <v>11322</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4458,13 +4905,13 @@
         <v>22039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -4473,13 +4920,13 @@
         <v>33361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4941,13 @@
         <v>238676</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>89</v>
@@ -4509,13 +4956,13 @@
         <v>88052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>322</v>
@@ -4524,13 +4971,13 @@
         <v>326728</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +5045,13 @@
         <v>13565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4613,13 +5060,13 @@
         <v>39134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4628,13 +5075,13 @@
         <v>52699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +5096,13 @@
         <v>253895</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -4664,28 +5111,28 @@
         <v>98680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>324</v>
       </c>
       <c r="N14" s="7">
-        <v>352575</v>
+        <v>352574</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,7 +5174,7 @@
         <v>373</v>
       </c>
       <c r="N15" s="7">
-        <v>405274</v>
+        <v>405273</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -4753,13 +5200,13 @@
         <v>23189</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -4768,13 +5215,13 @@
         <v>169231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>168</v>
@@ -4783,13 +5230,13 @@
         <v>192419</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +5251,13 @@
         <v>245338</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4819,13 +5266,13 @@
         <v>39713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -4834,13 +5281,13 @@
         <v>285051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,49 +5349,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7">
-        <v>110681</v>
+        <v>65901</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="I19" s="7">
-        <v>353398</v>
+        <v>215714</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="N19" s="7">
-        <v>464079</v>
+        <v>281615</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,49 +5400,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>295</v>
+        <v>167</v>
       </c>
       <c r="D20" s="7">
-        <v>280630</v>
+        <v>172886</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>4474</v>
+        <v>2007</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="M20" s="7">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="N20" s="7">
-        <v>285104</v>
+        <v>174893</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,10 +5451,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>413</v>
+        <v>232</v>
       </c>
       <c r="D21" s="7">
-        <v>391311</v>
+        <v>238787</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -5019,10 +5466,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="I21" s="7">
-        <v>357872</v>
+        <v>217721</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -5034,10 +5481,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>722</v>
+        <v>436</v>
       </c>
       <c r="N21" s="7">
-        <v>749183</v>
+        <v>456508</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -5051,55 +5498,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7">
-        <v>169085</v>
+        <v>44780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="H22" s="7">
-        <v>521</v>
+        <v>103</v>
       </c>
       <c r="I22" s="7">
-        <v>592873</v>
+        <v>137684</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
-        <v>690</v>
+        <v>156</v>
       </c>
       <c r="N22" s="7">
-        <v>761958</v>
+        <v>182464</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,49 +5555,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1141</v>
+        <v>128</v>
       </c>
       <c r="D23" s="7">
-        <v>1188754</v>
+        <v>107744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="H23" s="7">
-        <v>292</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>303524</v>
+        <v>2467</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="M23" s="7">
-        <v>1433</v>
+        <v>130</v>
       </c>
       <c r="N23" s="7">
-        <v>1492279</v>
+        <v>110211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,63 +5606,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>181</v>
+      </c>
+      <c r="D24" s="7">
+        <v>152524</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>105</v>
+      </c>
+      <c r="I24" s="7">
+        <v>140151</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>286</v>
+      </c>
+      <c r="N24" s="7">
+        <v>292675</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>169</v>
+      </c>
+      <c r="D25" s="7">
+        <v>169085</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H25" s="7">
+        <v>521</v>
+      </c>
+      <c r="I25" s="7">
+        <v>592873</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M25" s="7">
+        <v>690</v>
+      </c>
+      <c r="N25" s="7">
+        <v>761958</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1141</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1188754</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H26" s="7">
+        <v>292</v>
+      </c>
+      <c r="I26" s="7">
+        <v>303524</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1433</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1492279</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1310</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1357839</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>813</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>896397</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>2123</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2254237</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>133</v>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
